--- a/src/assets/layouts/Layout_empleados.xlsx
+++ b/src/assets/layouts/Layout_empleados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>RFC Emisor</t>
   </si>
@@ -86,48 +86,6 @@
   </si>
   <si>
     <t>ClaveEntFed</t>
-  </si>
-  <si>
-    <t>EKU9003173C9</t>
-  </si>
-  <si>
-    <t>EMMANUEL ALVARO RODRIGUEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ROHE960325MY5</t>
-  </si>
-  <si>
-    <t>G01</t>
-  </si>
-  <si>
-    <t>MAOE691214HCSNCZ16</t>
-  </si>
-  <si>
-    <t>P682W</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO DE SERVICIOS Y ATENCION AL PERSONAL DIRECCION DE RECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>JEFE DE DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>CHP</t>
   </si>
 </sst>
 </file>
@@ -135,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,6 +104,134 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,136 +250,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,193 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,17 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,16 +506,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,189 +548,178 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,13 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,7 +1057,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1157,137 +1103,66 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>76148</v>
-      </c>
-      <c r="F2">
-        <v>621</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>71906936308</v>
-      </c>
-      <c r="I2" s="5">
-        <v>39888</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2">
-        <v>131454</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2">
-        <v>6325891078</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
+    <row r="2" spans="9:9">
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
